--- a/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-municipalitycode.xlsx
+++ b/StructureDefinition-lmdi-municipalitycode.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -347,7 +347,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>urn:oid:2.16.578.1.12.4.1.1.3402</t>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/kommunenummer-alle</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.3402</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -807,42 +810,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="176.359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="151.1953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="31.4765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="19.97265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.66796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1728,7 +1731,7 @@
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s" s="2">
         <v>77</v>
@@ -1770,7 +1773,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1785,15 +1788,15 @@
         <v>109</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1819,13 +1822,13 @@
         <v>85</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -1875,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1890,15 +1893,15 @@
         <v>109</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1921,17 +1924,17 @@
         <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>77</v>
@@ -1980,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -1995,15 +1998,15 @@
         <v>109</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2029,14 +2032,14 @@
         <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2085,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2100,15 +2103,15 @@
         <v>109</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2131,19 +2134,19 @@
         <v>117</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2192,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2207,7 +2210,7 @@
         <v>109</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
